--- a/biology/Médecine/1892_en_santé_et_médecine/1892_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1892_en_santé_et_médecine/1892_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1892_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1892_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1892 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1892_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1892_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>18 juillet : le  bactériologiste d'origine russe Waldemar Haffkine fait la démonstration du premier vaccin anticholéra[1].
-Pour la première fois, l'université d'Adélaïde délivre son diplôme de médecin à une étudiante : Laura Fowler[2].
-Richard Pfeiffer est le premier décrire le bacille Haemophilus influenzae lors de la pandémie de grippe (influenza) de 1889-1892[3].
-Le neurologue et psychiatre tchèque Arnold Pick décrit l'atrophie frontale (maladie de Pick)[4].
-Le chirurgie autrichien Johann von Mikulicz-Radecki identifie le premier patient atteint du syndrome de Gougerot-Sjögren[5].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>18 juillet : le  bactériologiste d'origine russe Waldemar Haffkine fait la démonstration du premier vaccin anticholéra.
+Pour la première fois, l'université d'Adélaïde délivre son diplôme de médecin à une étudiante : Laura Fowler.
+Richard Pfeiffer est le premier décrire le bacille Haemophilus influenzae lors de la pandémie de grippe (influenza) de 1889-1892.
+Le neurologue et psychiatre tchèque Arnold Pick décrit l'atrophie frontale (maladie de Pick).
+Le chirurgie autrichien Johann von Mikulicz-Radecki identifie le premier patient atteint du syndrome de Gougerot-Sjögren.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1892_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1892_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>William Osler : The Principles and Practice of Medicine (en).</t>
         </is>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1892_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1892_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>20 juillet : Louis Michon (mort en 1973), chirurgien urologue français.
 5 novembre : John B. S. Haldane (mort en 1964), généticien britannique.
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1892_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1892_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>8 avril : Richard Owen (né en 1804), médecin, anatomiste et paléontologue britannique.</t>
         </is>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1892_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1892_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Anne-Marie Moulin, L'Aventure de la vaccination, Fayard, 2014 (ISBN 9782213657523, présentation en ligne)
